--- a/config/excel/CrystalAttRepo.xlsx
+++ b/config/excel/CrystalAttRepo.xlsx
@@ -214,8 +214,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -247,17 +247,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,21 +264,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,23 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +299,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -332,30 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +323,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +360,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +424,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,25 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,19 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,31 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,37 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,12 +599,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,8 +721,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +734,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,8 +786,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,7 +796,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,181 +815,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2195,7 +2195,7 @@
   <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>

--- a/config/excel/CrystalAttRepo.xlsx
+++ b/config/excel/CrystalAttRepo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CrystalAttRepo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -184,28 +184,22 @@
     <t>副属性百分比生命值</t>
   </si>
   <si>
-    <t>副属性效果命中</t>
+    <t>副属性百分比治疗量</t>
   </si>
   <si>
     <t>副属性效果抵抗</t>
   </si>
   <si>
-    <t>副属性总伤害加成</t>
-  </si>
-  <si>
     <t>副属性暴击值</t>
   </si>
   <si>
     <t>副属性暴击倍数</t>
   </si>
   <si>
-    <t>副属性百分比时速</t>
-  </si>
-  <si>
-    <t>副属性百分比移速</t>
-  </si>
-  <si>
-    <t>副属性治疗量</t>
+    <t>副属性百分比回怒</t>
+  </si>
+  <si>
+    <t>副属性百分比MP恢复</t>
   </si>
 </sst>
 </file>
@@ -213,12 +207,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -247,7 +241,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,31 +284,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +330,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -307,7 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -336,9 +368,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,52 +393,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,49 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +449,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,73 +545,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,37 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,19 +722,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,34 +782,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -815,160 +807,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -978,6 +983,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -985,64 +993,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2190,24 +2194,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.2307692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6153846153846" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54166666666667" style="1" customWidth="1"/>
     <col min="10" max="16380" width="6" style="1" customWidth="1"/>
     <col min="16381" max="16384" width="6" style="1"/>
   </cols>
@@ -2225,1200 +2229,1172 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="34" spans="1:9">
+    <row r="2" ht="27" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" ht="16.8" spans="1:9">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:9">
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:9">
+    <row r="5" ht="14.25" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" ht="16.8" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:9">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="13.5" spans="1:9">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>3001</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>3000</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="12">
         <v>3011</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <v>3010</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="12">
         <v>3021</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <v>3020</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>3031</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <v>3030</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <v>3033</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="12">
         <v>3032</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13">
         <v>32</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="12">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>3035</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <v>3034</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11">
+      <c r="B13" s="15"/>
+      <c r="C13" s="13">
         <v>33</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="15">
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="15">
         <v>3037</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="15">
         <v>3036</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>4</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="15">
         <v>3059</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="15">
         <v>3050</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13">
+      <c r="B15" s="17"/>
+      <c r="C15" s="16">
         <v>41</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="17">
         <v>3060</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="17">
         <v>3051</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13">
+      <c r="B16" s="17"/>
+      <c r="C16" s="16">
         <v>42</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>4</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="17">
         <v>0</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="17">
         <v>3061</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="17">
         <v>3052</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16">
         <v>43</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="15">
         <v>4</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="17">
         <v>3062</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="17">
         <v>3053</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16">
         <v>44</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="15">
         <v>4</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="17">
         <v>0</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="17">
         <v>3063</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="17">
         <v>3054</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16">
         <v>45</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="15">
         <v>4</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="17">
         <v>0</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="17">
         <v>3064</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="17">
         <v>3055</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13">
+      <c r="B20" s="17"/>
+      <c r="C20" s="16">
         <v>46</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>4</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="17">
         <v>3065</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="17">
         <v>3056</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16">
         <v>47</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="15">
         <v>4</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="17">
         <v>3066</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="17">
         <v>3057</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16">
         <v>48</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="15">
         <v>4</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="17">
         <v>3067</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="17">
         <v>3058</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
         <v>60</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="17">
         <v>5</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="17">
         <v>0</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="17">
         <v>3077</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="17">
         <v>3068</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
         <v>61</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="17">
         <v>5</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="17">
         <v>0</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="17">
         <v>3078</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="17">
         <v>3069</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
         <v>62</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="17">
         <v>5</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="17">
         <v>3079</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="17">
         <v>3070</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
         <v>63</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="17">
         <v>5</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="17">
         <v>0</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="17">
         <v>3080</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="17">
         <v>3071</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
         <v>64</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="17">
         <v>5</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="17">
         <v>3081</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="17">
         <v>3072</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
         <v>65</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="17">
         <v>5</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="17">
         <v>3082</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="17">
         <v>3073</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
         <v>66</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="17">
         <v>5</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="17">
         <v>3083</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="17">
         <v>3074</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
         <v>67</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="17">
         <v>5</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="17">
         <v>0</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="17">
         <v>3084</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="17">
         <v>3075</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
         <v>68</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="17">
         <v>0</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="17">
         <v>3085</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="17">
         <v>3076</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15">
         <v>100</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="15">
         <v>-1</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="15">
         <v>1</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="17">
         <v>3200</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="15">
         <v>-1</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17">
+        <v>101</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>3201</v>
+      </c>
+      <c r="H33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17">
+        <v>102</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>3202</v>
+      </c>
+      <c r="H34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17">
+        <v>103</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>3203</v>
+      </c>
+      <c r="H35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14">
-        <v>101</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="14">
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17">
+        <v>104</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="17">
         <v>-1</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F36" s="17">
         <v>1</v>
       </c>
-      <c r="G33" s="14">
-        <v>3201</v>
-      </c>
-      <c r="H33" s="14">
+      <c r="G36" s="17">
+        <v>3204</v>
+      </c>
+      <c r="H36" s="17">
         <v>-1</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I36" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14">
-        <v>102</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="14">
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17">
+        <v>105</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="17">
         <v>-1</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F37" s="17">
         <v>1</v>
       </c>
-      <c r="G34" s="14">
-        <v>3202</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="G37" s="17">
+        <v>3205</v>
+      </c>
+      <c r="H37" s="17">
         <v>-1</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I37" s="17">
         <v>15</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14">
-        <v>103</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="14">
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17">
+        <v>106</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="17">
         <v>-1</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F38" s="17">
         <v>1</v>
       </c>
-      <c r="G35" s="14">
-        <v>3203</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="G38" s="17">
+        <v>3206</v>
+      </c>
+      <c r="H38" s="17">
         <v>-1</v>
       </c>
-      <c r="I35" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14">
-        <v>104</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="I38" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17">
+        <v>107</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="17">
         <v>-1</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F39" s="17">
         <v>1</v>
       </c>
-      <c r="G36" s="14">
-        <v>3204</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="G39" s="17">
+        <v>3207</v>
+      </c>
+      <c r="H39" s="17">
         <v>-1</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I39" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17">
+        <v>108</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17">
+        <v>3209</v>
+      </c>
+      <c r="H40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14">
-        <v>105</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="14">
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17">
+        <v>109</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="17">
         <v>-1</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F41" s="17">
         <v>1</v>
       </c>
-      <c r="G37" s="14">
-        <v>3205</v>
-      </c>
-      <c r="H37" s="14">
+      <c r="G41" s="17">
+        <v>3210</v>
+      </c>
+      <c r="H41" s="17">
         <v>-1</v>
       </c>
-      <c r="I37" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14">
-        <v>106</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="I41" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17">
+        <v>110</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="17">
         <v>-1</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F42" s="17">
         <v>1</v>
       </c>
-      <c r="G38" s="14">
-        <v>3206</v>
-      </c>
-      <c r="H38" s="14">
+      <c r="G42" s="17">
+        <v>3211</v>
+      </c>
+      <c r="H42" s="17">
         <v>-1</v>
       </c>
-      <c r="I38" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14">
-        <v>107</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="I42" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17">
+        <v>111</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="17">
         <v>-1</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F43" s="17">
         <v>1</v>
       </c>
-      <c r="G39" s="14">
-        <v>3207</v>
-      </c>
-      <c r="H39" s="14">
+      <c r="G43" s="17">
+        <v>3212</v>
+      </c>
+      <c r="H43" s="17">
         <v>-1</v>
       </c>
-      <c r="I39" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14">
-        <v>108</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14">
-        <v>3208</v>
-      </c>
-      <c r="H40" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14">
-        <v>109</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="14">
-        <v>1</v>
-      </c>
-      <c r="G41" s="14">
-        <v>3209</v>
-      </c>
-      <c r="H41" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14">
-        <v>110</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="14">
-        <v>1</v>
-      </c>
-      <c r="G42" s="14">
-        <v>3210</v>
-      </c>
-      <c r="H42" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14">
-        <v>111</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="14">
-        <v>1</v>
-      </c>
-      <c r="G43" s="14">
-        <v>3211</v>
-      </c>
-      <c r="H43" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14">
-        <v>112</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="14">
-        <v>1</v>
-      </c>
-      <c r="G44" s="14">
-        <v>3212</v>
-      </c>
-      <c r="H44" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14">
-        <v>113</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="14">
-        <v>1</v>
-      </c>
-      <c r="G45" s="14">
-        <v>3213</v>
-      </c>
-      <c r="H45" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:27">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
+      <c r="I43" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:24">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:27">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
